--- a/biology/Biochimie/Electrophoresis/Electrophoresis.xlsx
+++ b/biology/Biochimie/Electrophoresis/Electrophoresis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Electrophoresis est une revue scientifique à comité de lecture qui publie des travaux scientifiques originaux dans le domaine de l'électrophorèse[4]. Son champ d'inclusion comprend toutes les techniques de préparation et d'analyse liées à l'électrophorèse, autant en gel qu'en puce miniaturisée. Elle est publiée depuis 1980 par Wiley-VCH Verlag GmbH &amp; Co. KGaA (Weinheim, Allemagne)[2].
-D'après l'Institute for Scientific Information (ISI), son facteur d'impact en 2014 est de 3,028[3]. L'actuel directeur de publication est Ziad El Rassi (Stillwater, États-Unis)[1].
+Electrophoresis est une revue scientifique à comité de lecture qui publie des travaux scientifiques originaux dans le domaine de l'électrophorèse. Son champ d'inclusion comprend toutes les techniques de préparation et d'analyse liées à l'électrophorèse, autant en gel qu'en puce miniaturisée. Elle est publiée depuis 1980 par Wiley-VCH Verlag GmbH &amp; Co. KGaA (Weinheim, Allemagne).
+D'après l'Institute for Scientific Information (ISI), son facteur d'impact en 2014 est de 3,028. L'actuel directeur de publication est Ziad El Rassi (Stillwater, États-Unis).
 </t>
         </is>
       </c>
